--- a/analysis/train_loss.xlsx
+++ b/analysis/train_loss.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,562 +379,1402 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.7045</v>
+        <v>0.6988</v>
       </c>
       <c r="B2">
-        <v>0.6041</v>
+        <v>0.5654</v>
       </c>
       <c r="C2">
-        <v>0.633</v>
+        <v>0.5833</v>
       </c>
       <c r="D2">
-        <v>0.7991</v>
+        <v>0.8349</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.6152</v>
+        <v>0.6093</v>
       </c>
       <c r="B3">
-        <v>0.5891999999999999</v>
+        <v>0.5889</v>
       </c>
       <c r="C3">
-        <v>0.6027</v>
+        <v>0.6132</v>
       </c>
       <c r="D3">
-        <v>0.8357</v>
+        <v>0.8074</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.6012999999999999</v>
+        <v>0.5981</v>
       </c>
       <c r="B4">
-        <v>0.6382</v>
+        <v>0.5964</v>
       </c>
       <c r="C4">
-        <v>0.6484</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="D4">
-        <v>0.7317</v>
+        <v>0.8162</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.5891</v>
+        <v>0.5895</v>
       </c>
       <c r="B5">
-        <v>0.5615</v>
+        <v>0.5823</v>
       </c>
       <c r="C5">
-        <v>0.5800999999999999</v>
+        <v>0.6112</v>
       </c>
       <c r="D5">
-        <v>0.8294</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.5731000000000001</v>
+        <v>0.5809</v>
       </c>
       <c r="B6">
-        <v>0.5544</v>
+        <v>0.5523</v>
       </c>
       <c r="C6">
-        <v>0.5763</v>
+        <v>0.5742</v>
       </c>
       <c r="D6">
-        <v>0.8363</v>
+        <v>0.8423</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.5675</v>
+        <v>0.5723</v>
       </c>
       <c r="B7">
-        <v>0.5585</v>
+        <v>0.5468</v>
       </c>
       <c r="C7">
-        <v>0.5665</v>
+        <v>0.5728</v>
       </c>
       <c r="D7">
-        <v>0.8071</v>
+        <v>0.8167</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.5574</v>
+        <v>0.5675</v>
       </c>
       <c r="B8">
-        <v>0.5607</v>
+        <v>0.5836</v>
       </c>
       <c r="C8">
-        <v>0.5855</v>
+        <v>0.605</v>
       </c>
       <c r="D8">
-        <v>0.8222</v>
+        <v>0.7727000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.5554</v>
+        <v>0.5628</v>
       </c>
       <c r="B9">
-        <v>0.5654</v>
+        <v>0.5857</v>
       </c>
       <c r="C9">
-        <v>0.5723</v>
+        <v>0.5917</v>
       </c>
       <c r="D9">
-        <v>0.8426</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.5447</v>
+        <v>0.5546</v>
       </c>
       <c r="B10">
-        <v>0.5697</v>
+        <v>0.5507</v>
       </c>
       <c r="C10">
-        <v>0.5827</v>
+        <v>0.5723</v>
       </c>
       <c r="D10">
-        <v>0.842</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.5451</v>
+        <v>0.5488</v>
       </c>
       <c r="B11">
-        <v>0.586</v>
+        <v>0.5403</v>
       </c>
       <c r="C11">
-        <v>0.603</v>
+        <v>0.5619</v>
       </c>
       <c r="D11">
-        <v>0.8431</v>
+        <v>0.8473000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.5362</v>
+        <v>0.5425</v>
       </c>
       <c r="B12">
-        <v>0.5436</v>
+        <v>0.5399</v>
       </c>
       <c r="C12">
-        <v>0.5605</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="D12">
-        <v>0.8426</v>
+        <v>0.8393</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.5335</v>
+        <v>0.5447</v>
       </c>
       <c r="B13">
-        <v>0.5563</v>
+        <v>0.5387999999999999</v>
       </c>
       <c r="C13">
-        <v>0.5747</v>
+        <v>0.5588</v>
       </c>
       <c r="D13">
-        <v>0.8398</v>
+        <v>0.8467</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.5319</v>
+        <v>0.5375</v>
       </c>
       <c r="B14">
-        <v>0.5735</v>
+        <v>0.5843</v>
       </c>
       <c r="C14">
-        <v>0.5979</v>
+        <v>0.5968</v>
       </c>
       <c r="D14">
-        <v>0.8442</v>
+        <v>0.8426</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.5282</v>
+        <v>0.539</v>
       </c>
       <c r="B15">
-        <v>0.5543</v>
+        <v>0.5444</v>
       </c>
       <c r="C15">
-        <v>0.5699</v>
+        <v>0.5615</v>
       </c>
       <c r="D15">
-        <v>0.8299</v>
+        <v>0.8411999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.527</v>
+        <v>0.536</v>
       </c>
       <c r="B16">
-        <v>0.5717</v>
+        <v>0.5733</v>
       </c>
       <c r="C16">
-        <v>0.5793</v>
+        <v>0.5958</v>
       </c>
       <c r="D16">
-        <v>0.8459</v>
+        <v>0.8484</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.5216</v>
+        <v>0.5331</v>
       </c>
       <c r="B17">
         <v>0.5386</v>
       </c>
       <c r="C17">
-        <v>0.5597</v>
+        <v>0.5603</v>
       </c>
       <c r="D17">
-        <v>0.8239</v>
+        <v>0.8476</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.5149</v>
+        <v>0.5319</v>
       </c>
       <c r="B18">
-        <v>0.5517</v>
+        <v>0.5677</v>
       </c>
       <c r="C18">
-        <v>0.5632</v>
+        <v>0.5866</v>
       </c>
       <c r="D18">
-        <v>0.8162</v>
+        <v>0.8411999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.5179</v>
+        <v>0.5308</v>
       </c>
       <c r="B19">
-        <v>0.5441</v>
+        <v>0.5431</v>
       </c>
       <c r="C19">
-        <v>0.5603</v>
+        <v>0.5568</v>
       </c>
       <c r="D19">
-        <v>0.8423</v>
+        <v>0.8431</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.5112</v>
+        <v>0.528</v>
       </c>
       <c r="B20">
-        <v>0.533</v>
+        <v>0.539</v>
       </c>
       <c r="C20">
-        <v>0.5515</v>
+        <v>0.5534</v>
       </c>
       <c r="D20">
-        <v>0.8379</v>
+        <v>0.8542</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.5105</v>
+        <v>0.5286</v>
       </c>
       <c r="B21">
-        <v>0.5337</v>
+        <v>0.5375</v>
       </c>
       <c r="C21">
-        <v>0.5524</v>
+        <v>0.5545</v>
       </c>
       <c r="D21">
-        <v>0.8509</v>
+        <v>0.8544</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.5063</v>
+        <v>0.5251</v>
       </c>
       <c r="B22">
-        <v>0.5472</v>
+        <v>0.5552</v>
       </c>
       <c r="C22">
-        <v>0.5638</v>
+        <v>0.5749</v>
       </c>
       <c r="D22">
-        <v>0.8255</v>
+        <v>0.8338</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.5034</v>
+        <v>0.5242</v>
       </c>
       <c r="B23">
-        <v>0.5343</v>
+        <v>0.5423</v>
       </c>
       <c r="C23">
-        <v>0.556</v>
+        <v>0.5618</v>
       </c>
       <c r="D23">
-        <v>0.85</v>
+        <v>0.8409</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.5033</v>
+        <v>0.5233</v>
       </c>
       <c r="B24">
-        <v>0.5294</v>
+        <v>0.5377</v>
       </c>
       <c r="C24">
-        <v>0.5504</v>
+        <v>0.5574</v>
       </c>
       <c r="D24">
-        <v>0.8467</v>
+        <v>0.8547</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.4982</v>
+        <v>0.5203</v>
       </c>
       <c r="B25">
-        <v>0.5413</v>
+        <v>0.5313</v>
       </c>
       <c r="C25">
-        <v>0.5610000000000001</v>
+        <v>0.5563</v>
       </c>
       <c r="D25">
-        <v>0.8453000000000001</v>
+        <v>0.8423</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.4948</v>
+        <v>0.5218</v>
       </c>
       <c r="B26">
-        <v>0.55</v>
+        <v>0.6092</v>
       </c>
       <c r="C26">
-        <v>0.5698</v>
+        <v>0.6377</v>
       </c>
       <c r="D26">
-        <v>0.8115</v>
+        <v>0.8363</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.4921</v>
+        <v>0.5248</v>
       </c>
       <c r="B27">
-        <v>0.547</v>
+        <v>0.5368000000000001</v>
       </c>
       <c r="C27">
-        <v>0.5656</v>
+        <v>0.5544</v>
       </c>
       <c r="D27">
-        <v>0.8286</v>
+        <v>0.8429</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.4908</v>
+        <v>0.5193</v>
       </c>
       <c r="B28">
-        <v>0.5457</v>
+        <v>0.5497</v>
       </c>
       <c r="C28">
-        <v>0.5714</v>
+        <v>0.5609</v>
       </c>
       <c r="D28">
-        <v>0.8426</v>
+        <v>0.8525</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.4885</v>
+        <v>0.5134</v>
       </c>
       <c r="B29">
-        <v>0.5515</v>
+        <v>0.5635</v>
       </c>
       <c r="C29">
-        <v>0.5804</v>
+        <v>0.5815</v>
       </c>
       <c r="D29">
-        <v>0.8244</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.4872</v>
+        <v>0.5241</v>
       </c>
       <c r="B30">
-        <v>0.5506</v>
+        <v>0.5891</v>
       </c>
       <c r="C30">
-        <v>0.5784</v>
+        <v>0.6055</v>
       </c>
       <c r="D30">
-        <v>0.8398</v>
+        <v>0.8415</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.4827</v>
+        <v>0.5251</v>
       </c>
       <c r="B31">
-        <v>0.5966</v>
+        <v>0.5942</v>
       </c>
       <c r="C31">
-        <v>0.6254999999999999</v>
+        <v>0.6117</v>
       </c>
       <c r="D31">
-        <v>0.847</v>
+        <v>0.8492</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.4815</v>
+        <v>0.5168</v>
       </c>
       <c r="B32">
-        <v>0.5623</v>
+        <v>0.5465</v>
       </c>
       <c r="C32">
-        <v>0.5852000000000001</v>
+        <v>0.5686</v>
       </c>
       <c r="D32">
-        <v>0.8423</v>
+        <v>0.8509</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.4804</v>
+        <v>0.5202</v>
       </c>
       <c r="B33">
-        <v>0.5375</v>
+        <v>0.5548999999999999</v>
       </c>
       <c r="C33">
-        <v>0.5523</v>
+        <v>0.5673</v>
       </c>
       <c r="D33">
-        <v>0.8478</v>
+        <v>0.8431</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.4781</v>
+        <v>0.5171</v>
       </c>
       <c r="B34">
-        <v>0.5404</v>
+        <v>0.5809</v>
       </c>
       <c r="C34">
-        <v>0.5663</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="D34">
-        <v>0.8456</v>
+        <v>0.8484</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.477</v>
+        <v>0.5212</v>
       </c>
       <c r="B35">
-        <v>0.5694</v>
+        <v>0.609</v>
       </c>
       <c r="C35">
-        <v>0.5908</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="D35">
-        <v>0.8407</v>
+        <v>0.8498</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.474</v>
+        <v>0.5185</v>
       </c>
       <c r="B36">
-        <v>0.5465</v>
+        <v>0.5586</v>
       </c>
       <c r="C36">
-        <v>0.5708</v>
+        <v>0.5727</v>
       </c>
       <c r="D36">
-        <v>0.8027</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.4701</v>
+        <v>0.5046</v>
       </c>
       <c r="B37">
-        <v>0.5605</v>
+        <v>0.5513</v>
       </c>
       <c r="C37">
-        <v>0.5962</v>
+        <v>0.5647</v>
       </c>
       <c r="D37">
-        <v>0.8398</v>
+        <v>0.8451</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.4698</v>
+        <v>0.5061</v>
       </c>
       <c r="B38">
-        <v>0.5413</v>
+        <v>0.5466</v>
       </c>
       <c r="C38">
-        <v>0.5687</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="D38">
-        <v>0.8437</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.4691</v>
+        <v>0.5021</v>
       </c>
       <c r="B39">
-        <v>0.556</v>
+        <v>0.5566</v>
       </c>
       <c r="C39">
-        <v>0.5724</v>
+        <v>0.5672</v>
       </c>
       <c r="D39">
-        <v>0.8217</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.4659</v>
+        <v>0.5016</v>
       </c>
       <c r="B40">
-        <v>0.5522</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="C40">
-        <v>0.5854</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="D40">
-        <v>0.8431</v>
+        <v>0.8522</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.4658</v>
+        <v>0.4995</v>
       </c>
       <c r="B41">
-        <v>0.5633</v>
+        <v>0.5564</v>
       </c>
       <c r="C41">
-        <v>0.577</v>
+        <v>0.5671</v>
       </c>
       <c r="D41">
-        <v>0.8462</v>
+        <v>0.847</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>0.5014</v>
+      </c>
+      <c r="B42">
+        <v>0.5522</v>
+      </c>
+      <c r="C42">
+        <v>0.5631</v>
+      </c>
+      <c r="D42">
+        <v>0.8467</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>0.4984</v>
+      </c>
+      <c r="B43">
+        <v>0.551</v>
+      </c>
+      <c r="C43">
+        <v>0.5629</v>
+      </c>
+      <c r="D43">
+        <v>0.8509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>0.4956</v>
+      </c>
+      <c r="B44">
+        <v>0.5488</v>
+      </c>
+      <c r="C44">
+        <v>0.5617</v>
+      </c>
+      <c r="D44">
+        <v>0.8506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>0.497</v>
+      </c>
+      <c r="B45">
+        <v>0.5503</v>
+      </c>
+      <c r="C45">
+        <v>0.5634</v>
+      </c>
+      <c r="D45">
+        <v>0.8489</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>0.4966</v>
+      </c>
+      <c r="B46">
+        <v>0.5524</v>
+      </c>
+      <c r="C46">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="D46">
+        <v>0.8528</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>0.4961</v>
+      </c>
+      <c r="B47">
+        <v>0.5487</v>
+      </c>
+      <c r="C47">
+        <v>0.5619</v>
+      </c>
+      <c r="D47">
+        <v>0.8498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>0.4947</v>
+      </c>
+      <c r="B48">
+        <v>0.5501</v>
+      </c>
+      <c r="C48">
+        <v>0.5634</v>
+      </c>
+      <c r="D48">
+        <v>0.8492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>0.4952</v>
+      </c>
+      <c r="B49">
+        <v>0.5473</v>
+      </c>
+      <c r="C49">
+        <v>0.5607</v>
+      </c>
+      <c r="D49">
+        <v>0.8484</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>0.4933</v>
+      </c>
+      <c r="B50">
+        <v>0.5491</v>
+      </c>
+      <c r="C50">
+        <v>0.5626</v>
+      </c>
+      <c r="D50">
+        <v>0.8489</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>0.4944</v>
+      </c>
+      <c r="B51">
+        <v>0.5503</v>
+      </c>
+      <c r="C51">
+        <v>0.5642</v>
+      </c>
+      <c r="D51">
+        <v>0.8495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>0.4935</v>
+      </c>
+      <c r="B52">
+        <v>0.547</v>
+      </c>
+      <c r="C52">
+        <v>0.5608</v>
+      </c>
+      <c r="D52">
+        <v>0.8489</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>0.4937</v>
+      </c>
+      <c r="B53">
+        <v>0.5499000000000001</v>
+      </c>
+      <c r="C53">
+        <v>0.5628</v>
+      </c>
+      <c r="D53">
+        <v>0.8509</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>0.493</v>
+      </c>
+      <c r="B54">
+        <v>0.5491</v>
+      </c>
+      <c r="C54">
+        <v>0.5622</v>
+      </c>
+      <c r="D54">
+        <v>0.8502999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>0.4937</v>
+      </c>
+      <c r="B55">
+        <v>0.549</v>
+      </c>
+      <c r="C55">
+        <v>0.5617</v>
+      </c>
+      <c r="D55">
+        <v>0.8509</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>0.4942</v>
+      </c>
+      <c r="B56">
+        <v>0.5494</v>
+      </c>
+      <c r="C56">
+        <v>0.5621</v>
+      </c>
+      <c r="D56">
+        <v>0.8511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>0.4939</v>
+      </c>
+      <c r="B57">
+        <v>0.5482</v>
+      </c>
+      <c r="C57">
+        <v>0.5609</v>
+      </c>
+      <c r="D57">
+        <v>0.8517</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>0.4942</v>
+      </c>
+      <c r="B58">
+        <v>0.549</v>
+      </c>
+      <c r="C58">
+        <v>0.5617</v>
+      </c>
+      <c r="D58">
+        <v>0.8517</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>0.4921</v>
+      </c>
+      <c r="B59">
+        <v>0.5489000000000001</v>
+      </c>
+      <c r="C59">
+        <v>0.5619</v>
+      </c>
+      <c r="D59">
+        <v>0.8502999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>0.4922</v>
+      </c>
+      <c r="B60">
+        <v>0.549</v>
+      </c>
+      <c r="C60">
+        <v>0.5619</v>
+      </c>
+      <c r="D60">
+        <v>0.8511</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>0.4913</v>
+      </c>
+      <c r="B61">
+        <v>0.5495</v>
+      </c>
+      <c r="C61">
+        <v>0.5624</v>
+      </c>
+      <c r="D61">
+        <v>0.8502999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>0.4931</v>
+      </c>
+      <c r="B62">
+        <v>0.5495</v>
+      </c>
+      <c r="C62">
+        <v>0.5623</v>
+      </c>
+      <c r="D62">
+        <v>0.8509</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>0.4934</v>
+      </c>
+      <c r="B63">
+        <v>0.5492</v>
+      </c>
+      <c r="C63">
+        <v>0.5621</v>
+      </c>
+      <c r="D63">
+        <v>0.8511</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>0.4935</v>
+      </c>
+      <c r="B64">
+        <v>0.5491</v>
+      </c>
+      <c r="C64">
+        <v>0.5623</v>
+      </c>
+      <c r="D64">
+        <v>0.8502999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>0.4945</v>
+      </c>
+      <c r="B65">
+        <v>0.5491</v>
+      </c>
+      <c r="C65">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="D65">
+        <v>0.8511</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>0.495</v>
+      </c>
+      <c r="B66">
+        <v>0.5496</v>
+      </c>
+      <c r="C66">
+        <v>0.5618</v>
+      </c>
+      <c r="D66">
+        <v>0.8514</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>0.495</v>
+      </c>
+      <c r="B67">
+        <v>0.5492</v>
+      </c>
+      <c r="C67">
+        <v>0.5619</v>
+      </c>
+      <c r="D67">
+        <v>0.8511</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>0.4945</v>
+      </c>
+      <c r="B68">
+        <v>0.5497</v>
+      </c>
+      <c r="C68">
+        <v>0.5624</v>
+      </c>
+      <c r="D68">
+        <v>0.8517</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>0.4925</v>
+      </c>
+      <c r="B69">
+        <v>0.5495</v>
+      </c>
+      <c r="C69">
+        <v>0.5623</v>
+      </c>
+      <c r="D69">
+        <v>0.852</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>0.4937</v>
+      </c>
+      <c r="B70">
+        <v>0.5495</v>
+      </c>
+      <c r="C70">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="D70">
+        <v>0.8509</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>0.4932</v>
+      </c>
+      <c r="B71">
+        <v>0.5496</v>
+      </c>
+      <c r="C71">
+        <v>0.5623</v>
+      </c>
+      <c r="D71">
+        <v>0.8511</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>0.4914</v>
+      </c>
+      <c r="B72">
+        <v>0.5493</v>
+      </c>
+      <c r="C72">
+        <v>0.5621</v>
+      </c>
+      <c r="D72">
+        <v>0.8511</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>0.4936</v>
+      </c>
+      <c r="B73">
+        <v>0.5494</v>
+      </c>
+      <c r="C73">
+        <v>0.5621</v>
+      </c>
+      <c r="D73">
+        <v>0.8514</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>0.4943</v>
+      </c>
+      <c r="B74">
+        <v>0.5496</v>
+      </c>
+      <c r="C74">
+        <v>0.5622</v>
+      </c>
+      <c r="D74">
+        <v>0.852</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>0.4935</v>
+      </c>
+      <c r="B75">
+        <v>0.5495</v>
+      </c>
+      <c r="C75">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="D75">
+        <v>0.8522</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>0.4943</v>
+      </c>
+      <c r="B76">
+        <v>0.5492</v>
+      </c>
+      <c r="C76">
+        <v>0.5624</v>
+      </c>
+      <c r="D76">
+        <v>0.8517</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>0.4931</v>
+      </c>
+      <c r="B77">
+        <v>0.5492</v>
+      </c>
+      <c r="C77">
+        <v>0.5621</v>
+      </c>
+      <c r="D77">
+        <v>0.8509</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>0.494</v>
+      </c>
+      <c r="B78">
+        <v>0.5493</v>
+      </c>
+      <c r="C78">
+        <v>0.5623</v>
+      </c>
+      <c r="D78">
+        <v>0.8511</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>0.4949</v>
+      </c>
+      <c r="B79">
+        <v>0.5493</v>
+      </c>
+      <c r="C79">
+        <v>0.5623</v>
+      </c>
+      <c r="D79">
+        <v>0.8511</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>0.4932</v>
+      </c>
+      <c r="B80">
+        <v>0.5495</v>
+      </c>
+      <c r="C80">
+        <v>0.5624</v>
+      </c>
+      <c r="D80">
+        <v>0.8509</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>0.4914</v>
+      </c>
+      <c r="B81">
+        <v>0.5498</v>
+      </c>
+      <c r="C81">
+        <v>0.5623</v>
+      </c>
+      <c r="D81">
+        <v>0.8514</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>0.4951</v>
+      </c>
+      <c r="B82">
+        <v>0.5497</v>
+      </c>
+      <c r="C82">
+        <v>0.5624</v>
+      </c>
+      <c r="D82">
+        <v>0.8509</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>0.4933</v>
+      </c>
+      <c r="B83">
+        <v>0.5497</v>
+      </c>
+      <c r="C83">
+        <v>0.5623</v>
+      </c>
+      <c r="D83">
+        <v>0.8509</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>0.4934</v>
+      </c>
+      <c r="B84">
+        <v>0.5497</v>
+      </c>
+      <c r="C84">
+        <v>0.5623</v>
+      </c>
+      <c r="D84">
+        <v>0.8502999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>0.4935</v>
+      </c>
+      <c r="B85">
+        <v>0.5498</v>
+      </c>
+      <c r="C85">
+        <v>0.5623</v>
+      </c>
+      <c r="D85">
+        <v>0.852</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>0.4925</v>
+      </c>
+      <c r="B86">
+        <v>0.5496</v>
+      </c>
+      <c r="C86">
+        <v>0.5624</v>
+      </c>
+      <c r="D86">
+        <v>0.8511</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>0.4931</v>
+      </c>
+      <c r="B87">
+        <v>0.5494</v>
+      </c>
+      <c r="C87">
+        <v>0.5623</v>
+      </c>
+      <c r="D87">
+        <v>0.8502999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>0.4948</v>
+      </c>
+      <c r="B88">
+        <v>0.5495</v>
+      </c>
+      <c r="C88">
+        <v>0.5622</v>
+      </c>
+      <c r="D88">
+        <v>0.8511</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>0.4924</v>
+      </c>
+      <c r="B89">
+        <v>0.5497</v>
+      </c>
+      <c r="C89">
+        <v>0.5621</v>
+      </c>
+      <c r="D89">
+        <v>0.8506</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>0.4934</v>
+      </c>
+      <c r="B90">
+        <v>0.5496</v>
+      </c>
+      <c r="C90">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="D90">
+        <v>0.8514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>0.4917</v>
+      </c>
+      <c r="B91">
+        <v>0.5495</v>
+      </c>
+      <c r="C91">
+        <v>0.5622</v>
+      </c>
+      <c r="D91">
+        <v>0.8509</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>0.4945</v>
+      </c>
+      <c r="B92">
+        <v>0.5497</v>
+      </c>
+      <c r="C92">
+        <v>0.5622</v>
+      </c>
+      <c r="D92">
+        <v>0.8509</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>0.4917</v>
+      </c>
+      <c r="B93">
+        <v>0.5495</v>
+      </c>
+      <c r="C93">
+        <v>0.5623</v>
+      </c>
+      <c r="D93">
+        <v>0.8522</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>0.4912</v>
+      </c>
+      <c r="B94">
+        <v>0.5494</v>
+      </c>
+      <c r="C94">
+        <v>0.5624</v>
+      </c>
+      <c r="D94">
+        <v>0.8514</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>0.4944</v>
+      </c>
+      <c r="B95">
+        <v>0.5494</v>
+      </c>
+      <c r="C95">
+        <v>0.5622</v>
+      </c>
+      <c r="D95">
+        <v>0.8509</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>0.4924</v>
+      </c>
+      <c r="B96">
+        <v>0.5496</v>
+      </c>
+      <c r="C96">
+        <v>0.5623</v>
+      </c>
+      <c r="D96">
+        <v>0.8514</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>0.4927</v>
+      </c>
+      <c r="B97">
+        <v>0.5493</v>
+      </c>
+      <c r="C97">
+        <v>0.5621</v>
+      </c>
+      <c r="D97">
+        <v>0.8514</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>0.4934</v>
+      </c>
+      <c r="B98">
+        <v>0.5494</v>
+      </c>
+      <c r="C98">
+        <v>0.5623</v>
+      </c>
+      <c r="D98">
+        <v>0.8514</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>0.4947</v>
+      </c>
+      <c r="B99">
+        <v>0.5496</v>
+      </c>
+      <c r="C99">
+        <v>0.5624</v>
+      </c>
+      <c r="D99">
+        <v>0.8506</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>0.4925</v>
+      </c>
+      <c r="B100">
+        <v>0.5494</v>
+      </c>
+      <c r="C100">
+        <v>0.5623</v>
+      </c>
+      <c r="D100">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>0.4926</v>
+      </c>
+      <c r="B101">
+        <v>0.5494</v>
+      </c>
+      <c r="C101">
+        <v>0.5622</v>
+      </c>
+      <c r="D101">
+        <v>0.8517</v>
       </c>
     </row>
   </sheetData>
